--- a/Results_reduced_update!!!!!!!new.xlsx
+++ b/Results_reduced_update!!!!!!!new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zmiao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CAF2B57-CDDE-484B-A7F6-2F7652D83A23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715592AC-00A5-4802-9875-2BA31238F554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6285" yWindow="1950" windowWidth="18870" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nn (2)" sheetId="3" r:id="rId1"/>
@@ -260,10 +260,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -807,7 +807,7 @@
                   <c:v>36.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>70.5</c:v>
@@ -2347,7 +2347,7 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75.7</c:v>
@@ -2633,7 +2633,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2646,14 +2646,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2000"/>
               <a:t>F1-Score</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
               <a:t> Results for All Algorithms with Entire Dataset and Reduced Dataset</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2000"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2670,7 +2670,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2732,7 +2732,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2897,7 +2897,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3062,7 +3062,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3136,7 +3136,7 @@
                   <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>73</c:v>
@@ -3192,7 +3192,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3242,7 +3242,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3255,7 +3255,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
               </a:p>
@@ -3274,7 +3274,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3306,7 +3306,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3334,7 +3334,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3348,7 +3348,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3422,7 +3422,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3435,14 +3435,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="2800"/>
               <a:t>Execution</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
+              <a:rPr lang="en-US" sz="2800" baseline="0"/>
               <a:t> Time Results for All Algorithms with Entire Dataset and Reduced Dataset</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="2800"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -3459,7 +3459,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3477,7 +3477,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.9081109001370735E-2"/>
+          <c:y val="7.2863149337178995E-2"/>
+          <c:w val="0.94298902264088069"/>
+          <c:h val="0.78869722403990483"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -3521,7 +3531,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3686,7 +3696,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3851,7 +3861,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3981,7 +3991,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4031,7 +4041,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4044,15 +4054,15 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2800"/>
                   <a:t>Execution</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2800" baseline="0"/>
                   <a:t> Time</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:rPr lang="en-US" sz="2800"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
               </a:p>
@@ -4071,7 +4081,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4103,7 +4113,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4131,7 +4141,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4145,7 +4155,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4212,9 +4222,79 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Overall Accuracy Results for All Algorithms with Entire Dataset and Reduced Dataset</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.3707905474046306E-2"/>
+          <c:y val="6.2608715908196055E-2"/>
+          <c:w val="0.87050727002893924"/>
+          <c:h val="0.82216221330849693"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
@@ -4235,9 +4315,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4274,13 +4352,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4422,7 +4498,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFC000"/>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -4439,13 +4515,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4604,13 +4678,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4684,7 +4756,7 @@
                   <c:v>55.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>57</c:v>
+                  <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>75.900000000000006</c:v>
@@ -4740,7 +4812,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4790,7 +4862,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4803,7 +4875,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1800"/>
+                  <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
               </a:p>
@@ -4822,7 +4894,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -4854,7 +4926,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4882,7 +4954,17 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.44792573351777853"/>
+          <c:y val="0.96738048619794981"/>
+          <c:w val="0.14878202957510139"/>
+          <c:h val="3.2619513802050158E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4896,7 +4978,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4936,7 +5018,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr lang="en-US"/>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -13556,15 +13638,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>394607</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379639</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13593,16 +13675,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>789215</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13631,16 +13713,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>42860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>1114425</xdr:colOff>
-      <xdr:row>131</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>1114424</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13669,16 +13751,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>2241</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>870856</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123265</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>80683</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>1102178</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14153,13 +14235,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D8244-74A7-4A2E-A856-40F68AA64FE7}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" thickBot="1">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -14168,7 +14250,7 @@
       <c r="E1" s="9"/>
       <c r="F1" s="9"/>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -14365,7 +14447,7 @@
         <v>11.39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1">
+    <row r="12" spans="1:6" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>15</v>
       </c>
@@ -14385,16 +14467,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.2" thickBot="1">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B14" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -14472,7 +14554,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.399999999999999" customHeight="1">
+    <row r="19" spans="1:6" ht="17.45" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>16</v>
       </c>
@@ -14592,7 +14674,7 @@
         <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1">
+    <row r="25" spans="1:6" ht="15.75" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>15</v>
       </c>
@@ -14616,16 +14698,16 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="16.2" thickBot="1">
+    <row r="27" spans="1:6" ht="16.5" thickBot="1">
       <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:6" ht="15" thickBot="1">
+    <row r="28" spans="1:6" ht="15.75" thickBot="1">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
         <v>0</v>
@@ -14808,22 +14890,22 @@
         <v>11</v>
       </c>
       <c r="B37" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" s="4">
-        <v>0</v>
+        <v>1.4E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>0</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="E37" s="4">
-        <v>57</v>
+        <v>57.6</v>
       </c>
       <c r="F37" s="4">
         <v>4.07</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" thickBot="1">
+    <row r="38" spans="1:6" ht="15.75" thickBot="1">
       <c r="A38" s="6" t="s">
         <v>15</v>
       </c>
@@ -14865,13 +14947,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6">
+    <row r="1" spans="1:6" ht="15.75">
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
@@ -15097,16 +15179,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="B14" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="15" thickBot="1">
+    <row r="15" spans="1:6" ht="15.75" thickBot="1">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
         <v>0</v>
@@ -15328,14 +15410,14 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="15.75">
       <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="4"/>

--- a/Results_reduced_update!!!!!!!new.xlsx
+++ b/Results_reduced_update!!!!!!!new.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tfry\Desktop\CS522-Final-Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715592AC-00A5-4802-9875-2BA31238F554}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6285" yWindow="1950" windowWidth="18870" windowHeight="9675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="18930" windowHeight="8520"/>
   </bookViews>
   <sheets>
     <sheet name="nn (2)" sheetId="3" r:id="rId1"/>
@@ -22,6 +16,9 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
+  <si>
+    <t>Raw</t>
+  </si>
   <si>
     <t>Precision</t>
   </si>
@@ -53,12 +50,6 @@
     <t>kNN</t>
   </si>
   <si>
-    <t>Kmeans</t>
-  </si>
-  <si>
-    <t>WTA</t>
-  </si>
-  <si>
     <t>Random Forest</t>
   </si>
   <si>
@@ -68,29 +59,38 @@
     <t>SVM</t>
   </si>
   <si>
+    <t>Kmeans</t>
+  </si>
+  <si>
+    <t>WTA</t>
+  </si>
+  <si>
     <t>Fusion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FLD </t>
   </si>
   <si>
     <t>kNN(k = 37)</t>
   </si>
   <si>
-    <t>kNN (k=11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FLD </t>
-  </si>
-  <si>
     <t>PCA</t>
   </si>
   <si>
-    <t>Raw</t>
+    <t>kNN (k=11)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,16 +127,346 @@
       <name val="Courier New"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -227,12 +557,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -251,42 +826,83 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -328,6 +944,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -336,26 +953,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -415,7 +1012,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -428,6 +1024,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -491,10 +1088,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.7</c:v>
@@ -509,25 +1106,20 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.900000000000006</c:v>
+                  <c:v>69.9</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>69.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4082-41F4-A55E-7FCEAC5DFD58}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -580,7 +1172,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -593,6 +1184,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -668,7 +1260,7 @@
                   <c:v>82.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.400000000000006</c:v>
+                  <c:v>81.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>76.7</c:v>
@@ -688,11 +1280,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4082-41F4-A55E-7FCEAC5DFD58}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -745,7 +1332,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -758,6 +1344,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -783,7 +1370,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>75.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74.3</c:v>
@@ -810,16 +1397,11 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>70.5</c:v>
+                  <c:v>87.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4082-41F4-A55E-7FCEAC5DFD58}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -875,7 +1457,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -929,9 +1510,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -940,26 +1523,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -989,7 +1552,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -1006,6 +1568,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1031,7 +1594,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1061,7 +1623,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1073,9 +1634,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1123,22 +1684,10 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7740-4601-94AF-EA994D4DB4C9}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7740-4601-94AF-EA994D4DB4C9}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1166,7 +1715,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1179,6 +1727,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1269,16 +1818,11 @@
                   <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.599999999999994</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7740-4601-94AF-EA994D4DB4C9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1331,7 +1875,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1344,6 +1887,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1407,31 +1951,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.900000000000006</c:v>
+                  <c:v>72.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1439,11 +1983,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7740-4601-94AF-EA994D4DB4C9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1496,7 +2035,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1509,6 +2047,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1552,25 +2091,20 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.900000000000006</c:v>
+                  <c:v>75.9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7740-4601-94AF-EA994D4DB4C9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1626,7 +2160,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -1680,9 +2213,11 @@
                   <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1691,26 +2226,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1740,7 +2255,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -1757,6 +2271,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1782,7 +2297,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1812,7 +2326,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1824,9 +2337,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1868,6 +2381,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1876,26 +2390,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1955,7 +2449,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1968,6 +2461,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2031,13 +2525,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.8</c:v>
@@ -2058,16 +2552,11 @@
                   <c:v>66.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>63.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5952-4962-9A8D-B40F850B7EB9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2120,7 +2609,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2133,6 +2621,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2208,7 +2697,7 @@
                   <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>71.7</c:v>
@@ -2228,11 +2717,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5952-4962-9A8D-B40F850B7EB9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2285,7 +2769,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2298,6 +2781,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2347,19 +2831,14 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.4E-2</c:v>
+                  <c:v>0.014</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.7</c:v>
+                  <c:v>60.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-5952-4962-9A8D-B40F850B7EB9}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2415,7 +2894,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2469,9 +2947,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2480,26 +2960,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2529,7 +2989,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -2546,6 +3005,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2571,7 +3031,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2601,7 +3060,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2613,9 +3071,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2657,6 +3115,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2665,26 +3124,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2744,7 +3183,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2757,6 +3195,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2820,43 +3259,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>65.6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>66.7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7F78-40BC-BDCD-AFA7E83669F8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2909,7 +3343,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2922,6 +3355,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2994,13 +3428,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>70.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.099999999999994</c:v>
+                  <c:v>73.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>74.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>74</c:v>
@@ -3017,11 +3451,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7F78-40BC-BDCD-AFA7E83669F8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3074,7 +3503,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3087,6 +3515,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3112,7 +3541,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73.3</c:v>
@@ -3124,31 +3553,26 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.099999999999994</c:v>
+                  <c:v>64.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8000000000000001E-2</c:v>
+                  <c:v>0.028</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>73</c:v>
+                  <c:v>71.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7F78-40BC-BDCD-AFA7E83669F8}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3204,7 +3628,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -3258,9 +3681,11 @@
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3269,26 +3694,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3318,7 +3723,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -3335,6 +3739,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3360,7 +3765,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3390,7 +3794,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3402,9 +3805,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3446,6 +3849,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3454,26 +3858,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3482,10 +3866,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.9081109001370735E-2"/>
-          <c:y val="7.2863149337178995E-2"/>
-          <c:w val="0.94298902264088069"/>
-          <c:h val="0.78869722403990483"/>
+          <c:x val="0.0490811090013707"/>
+          <c:y val="0.072863149337179"/>
+          <c:w val="0.942989022640881"/>
+          <c:h val="0.788697224039905"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -3543,7 +3927,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3556,6 +3939,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3619,10 +4003,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.043</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
@@ -3631,31 +4015,26 @@
                   <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.176</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3009999999999999</c:v>
+                  <c:v>1.301</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0E20-4EC1-98B9-682D928C866B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3708,7 +4087,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3721,6 +4099,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3796,7 +4175,7 @@
                   <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.52</c:v>
@@ -3811,16 +4190,11 @@
                   <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0E20-4EC1-98B9-682D928C866B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3873,7 +4247,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3886,6 +4259,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3911,7 +4285,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.772</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3541.79</c:v>
@@ -3929,7 +4303,7 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>326.77999999999997</c:v>
+                  <c:v>326.78</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.73</c:v>
@@ -3938,16 +4312,11 @@
                   <c:v>4.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0E20-4EC1-98B9-682D928C866B}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4003,7 +4372,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -4065,9 +4433,11 @@
                   <a:rPr lang="en-US" sz="2800"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2800"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4076,26 +4446,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4125,7 +4475,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -4142,6 +4491,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4167,7 +4517,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4197,7 +4546,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4209,9 +4557,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4229,7 +4577,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr lang="en-US" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4253,6 +4601,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4261,26 +4610,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4289,10 +4618,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.3707905474046306E-2"/>
-          <c:y val="6.2608715908196055E-2"/>
-          <c:w val="0.87050727002893924"/>
-          <c:h val="0.82216221330849693"/>
+          <c:x val="0.0737079054740463"/>
+          <c:y val="0.0626087159081961"/>
+          <c:w val="0.870507270028939"/>
+          <c:h val="0.822162213308497"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4327,22 +4656,10 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-873F-40CA-8578-1C3226DD6F13}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000001-873F-40CA-8578-1C3226DD6F13}"/>
-                </c:ext>
-              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -4352,11 +4669,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4368,7 +4685,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4381,6 +4697,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4471,16 +4788,11 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.599999999999994</c:v>
+                  <c:v>79.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-873F-40CA-8578-1C3226DD6F13}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4515,11 +4827,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4531,7 +4843,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4544,6 +4855,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4607,43 +4919,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.900000000000006</c:v>
+                  <c:v>72.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.099999999999994</c:v>
+                  <c:v>72.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-873F-40CA-8578-1C3226DD6F13}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4678,11 +4985,11 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -4694,7 +5001,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4707,6 +5013,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4744,10 +5051,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.400000000000006</c:v>
+                  <c:v>78.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>80.5</c:v>
@@ -4759,16 +5066,11 @@
                   <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.900000000000006</c:v>
+                  <c:v>79.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-873F-40CA-8578-1C3226DD6F13}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4812,7 +5114,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4824,7 +5126,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -4862,7 +5163,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -4878,9 +5179,11 @@
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4889,26 +5192,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4926,7 +5209,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -4938,7 +5221,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -4959,10 +5241,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.44792573351777853"/>
-          <c:y val="0.96738048619794981"/>
-          <c:w val="0.14878202957510139"/>
-          <c:h val="3.2619513802050158E-2"/>
+          <c:x val="0.447925733517779"/>
+          <c:y val="0.96738048619795"/>
+          <c:w val="0.148782029575101"/>
+          <c:h val="0.0326195138020502"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4978,7 +5260,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -4990,7 +5272,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5018,9 +5299,8 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr lang="en-US" sz="1400"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5032,9 +5312,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5076,6 +5356,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5084,26 +5365,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5163,7 +5424,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5176,6 +5436,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5239,10 +5500,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.7</c:v>
@@ -5254,7 +5515,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.900000000000006</c:v>
+                  <c:v>67.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>69.8</c:v>
@@ -5263,7 +5524,7 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.900000000000006</c:v>
+                  <c:v>69.9</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5271,11 +5532,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E8CE-4690-9C87-0A27305FB1BD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5328,7 +5584,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5341,6 +5596,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5422,7 +5678,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.400000000000006</c:v>
+                  <c:v>81.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>76.7</c:v>
@@ -5436,11 +5692,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E8CE-4690-9C87-0A27305FB1BD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5493,7 +5744,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5506,6 +5756,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5531,7 +5782,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.099999999999994</c:v>
+                  <c:v>75.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74.3</c:v>
@@ -5563,11 +5814,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-E8CE-4690-9C87-0A27305FB1BD}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5623,7 +5869,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -5677,9 +5922,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5688,26 +5935,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5737,7 +5964,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -5754,6 +5980,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5779,7 +6006,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5809,7 +6035,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5821,9 +6046,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5865,6 +6090,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5873,26 +6099,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5952,7 +6158,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5965,6 +6170,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6028,13 +6234,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.8</c:v>
@@ -6060,11 +6266,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FD5C-41F3-AE44-6CEF9CAE2460}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6117,7 +6318,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6130,6 +6330,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6211,7 +6412,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.400000000000006</c:v>
+                  <c:v>66.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>71.7</c:v>
@@ -6225,11 +6426,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-FD5C-41F3-AE44-6CEF9CAE2460}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6282,7 +6478,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6295,6 +6490,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6352,11 +6548,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FD5C-41F3-AE44-6CEF9CAE2460}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6412,7 +6603,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -6466,9 +6656,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6477,26 +6669,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6526,7 +6698,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -6543,6 +6714,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6568,7 +6740,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6598,7 +6769,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6610,9 +6780,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6654,6 +6824,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6662,26 +6833,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6741,7 +6892,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6754,6 +6904,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6817,28 +6968,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.099999999999994</c:v>
+                  <c:v>67.1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.599999999999994</c:v>
+                  <c:v>65.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.900000000000006</c:v>
+                  <c:v>66.9</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>66.7</c:v>
@@ -6849,11 +7000,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-760B-46F9-B3C9-D8FDF0318D16}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6906,7 +7052,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6919,6 +7064,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6991,7 +7137,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.400000000000006</c:v>
+                  <c:v>70.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4</c:v>
@@ -7000,10 +7146,10 @@
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.099999999999994</c:v>
+                  <c:v>73.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.099999999999994</c:v>
+                  <c:v>74.1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>74</c:v>
@@ -7014,11 +7160,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-760B-46F9-B3C9-D8FDF0318D16}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7071,7 +7212,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7084,6 +7224,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7109,7 +7250,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.599999999999994</c:v>
+                  <c:v>72.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73.3</c:v>
@@ -7121,19 +7262,19 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6999999999999993</c:v>
+                  <c:v>9.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.099999999999994</c:v>
+                  <c:v>64.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.400000000000006</c:v>
+                  <c:v>75.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>73</c:v>
@@ -7141,11 +7282,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-760B-46F9-B3C9-D8FDF0318D16}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7201,7 +7337,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -7255,9 +7390,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7266,26 +7403,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7315,7 +7432,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -7332,6 +7448,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7357,7 +7474,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7387,7 +7503,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7399,9 +7514,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7443,6 +7558,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7451,26 +7567,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7530,7 +7626,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7543,6 +7638,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7606,10 +7702,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.043</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2999999999999997E-2</c:v>
+                  <c:v>0.043</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
@@ -7618,19 +7714,19 @@
                   <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2000000000000003E-2</c:v>
+                  <c:v>0.042</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3009999999999999</c:v>
+                  <c:v>1.301</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17599999999999999</c:v>
+                  <c:v>0.176</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.8000000000000001E-2</c:v>
+                  <c:v>0.048</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -7638,11 +7734,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0038-4104-8282-7EBFF2D693F4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7695,7 +7786,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7708,6 +7798,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7789,7 +7880,7 @@
                   <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1000000000000001</c:v>
+                  <c:v>1.1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.52</c:v>
@@ -7798,16 +7889,11 @@
                   <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.0000000000000001E-3</c:v>
+                  <c:v>0.005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0038-4104-8282-7EBFF2D693F4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7860,7 +7946,6 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7873,6 +7958,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7898,7 +7984,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.77200000000000002</c:v>
+                  <c:v>0.772</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3541.79</c:v>
@@ -7922,19 +8008,14 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326.77999999999997</c:v>
+                  <c:v>326.78</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2E-3</c:v>
+                  <c:v>0.002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0038-4104-8282-7EBFF2D693F4}"/>
-            </c:ext>
-          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7990,7 +8071,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -8052,9 +8132,11 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8063,26 +8145,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8112,7 +8174,6 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -8129,6 +8190,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8154,7 +8216,6 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8184,7 +8245,6 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13596,7 +13656,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -13610,22 +13670,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D18564-B898-4CEB-892D-4F16C449C21E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="209550"/>
+        <a:ext cx="12351385" cy="4831715"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13648,22 +13700,14 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D917E95C-C658-4C24-BF47-1DBFCA861E43}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11631295" y="5246370"/>
+        <a:ext cx="12827000" cy="4876800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13686,22 +13730,14 @@
       <xdr:row>143</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEDEAB8F-F521-4AA6-B207-BDD6A10F90A7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="20052030" y="18052415"/>
+        <a:ext cx="30051375" cy="10689590"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13724,22 +13760,14 @@
       <xdr:row>90</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA4320F8-3A41-4DAB-BCEB-5AADFDCF060D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="50091975" y="252095"/>
+        <a:ext cx="60180855" cy="17895570"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13762,22 +13790,14 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3686798-0797-4D91-A4B8-8852D13866B0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="24949785" y="304800"/>
+        <a:ext cx="24310340" cy="10130155"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13791,7 +13811,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -13805,20 +13825,14 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="209550"/>
+        <a:ext cx="12351385" cy="4819650"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13841,20 +13855,14 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="5257800"/>
+        <a:ext cx="12351385" cy="4867275"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13877,20 +13885,14 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="10487025"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13913,20 +13915,14 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="11236960" y="21288375"/>
+        <a:ext cx="12351385" cy="5038725"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13949,20 +13945,14 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame macro="">
+    <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
+        <a:off x="0" y="8288655"/>
+        <a:ext cx="11360150" cy="3679190"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14227,709 +14217,709 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88D8244-74A7-4A2E-A856-40F68AA64FE7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+    <row r="1" ht="16.5" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="16.5" spans="2:6">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
         <v>75.3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>70.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>72.7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>77.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>23.07</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" ht="15" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>82.7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>61.3</v>
       </c>
-      <c r="D6" s="4">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>70.4</v>
+      </c>
+      <c r="E6" s="5">
         <v>77.8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C7" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D7" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="A7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="5">
+        <v>81.4</v>
+      </c>
+      <c r="C7" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>73.1</v>
+      </c>
+      <c r="E7" s="5">
         <v>79</v>
       </c>
-      <c r="F7" s="4">
-        <v>1.1000000000000001</v>
+      <c r="F7" s="5">
+        <v>1.1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="5">
         <v>76.7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>71.7</v>
       </c>
-      <c r="D8" s="4">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E8" s="4">
+      <c r="D8" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="E8" s="5">
         <v>78.5</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>2.52</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="A9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="5">
         <v>85</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>65.5</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="5">
         <v>74</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="5">
         <v>80.2</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>5.69</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5">
         <v>30.4</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>4.2</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <v>7.4</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="5">
         <v>54.7</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>0.37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="5">
         <v>43</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>60.1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>43</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>11.39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <v>82.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>66.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>73.7</v>
       </c>
-      <c r="E12" s="4">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="E12" s="5">
+        <v>79.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B14" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C16" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D16" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E16" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.2999999999999997E-2</v>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.043</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C17" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D17" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E17" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4.2999999999999997E-2</v>
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.043</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
         <v>70.7</v>
       </c>
-      <c r="C18" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D18" s="5">
         <v>66.8</v>
       </c>
-      <c r="E18" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="5">
+        <v>72.9</v>
+      </c>
+      <c r="F18" s="5">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.45" customHeight="1">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="19" ht="17.45" customHeight="1" spans="1:6">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>70.2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>63.8</v>
       </c>
-      <c r="D19" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E19" s="5">
         <v>72.8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0.1067</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="5">
         <v>69.8</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>61.8</v>
       </c>
-      <c r="D20" s="4">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="E20" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0.17599999999999999</v>
+      <c r="D20" s="5">
+        <v>65.6</v>
+      </c>
+      <c r="E20" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.176</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="A21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5">
         <v>69.3</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>64.7</v>
       </c>
-      <c r="D21" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="D21" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E21" s="5">
         <v>72.5</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="5">
         <v>0.93</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="A22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="5">
+        <v>69.9</v>
+      </c>
+      <c r="C22" s="5">
         <v>63.8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="5">
         <v>66.7</v>
       </c>
-      <c r="E22" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F22" s="4">
-        <v>4.8000000000000001E-2</v>
+      <c r="E22" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.048</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="5">
         <v>68</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>66.2</v>
       </c>
-      <c r="D23" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E23" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F23" s="4">
-        <v>4.2000000000000003E-2</v>
+      <c r="D23" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E23" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.042</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="A24" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C24" s="5">
         <v>66.2</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>67</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="5">
         <v>72</v>
       </c>
-      <c r="F24" s="4">
-        <v>1.3009999999999999</v>
+      <c r="F24" s="5">
+        <v>1.301</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4">
-        <v>0</v>
-      </c>
-      <c r="D25" s="4">
-        <v>0</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="4">
-        <v>0</v>
+    <row r="25" ht="16.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
+        <v>69.9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>63.8</v>
+      </c>
+      <c r="D25" s="5">
+        <v>66.7</v>
+      </c>
+      <c r="E25" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.001</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+    <row r="26" spans="5:6">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" thickBot="1">
-      <c r="B27" s="9" t="s">
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="28" ht="16.5" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>75.1</v>
+      </c>
+      <c r="C29" s="5">
         <v>70.3</v>
       </c>
-      <c r="D29" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="E29" s="5">
         <v>77.2</v>
       </c>
-      <c r="F29" s="4">
-        <v>0.77200000000000002</v>
+      <c r="F29" s="5">
+        <v>0.772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
         <v>74.3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>72.3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>73.3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>77.5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>3541.79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>57</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>4528.62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
         <v>82.5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>59.1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>68.8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>77</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>174.39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="A33" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5">
         <v>85.9</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>51.1</v>
       </c>
-      <c r="D33" s="4">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E33" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="D33" s="5">
+        <v>64.1</v>
+      </c>
+      <c r="E33" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="F33" s="5">
         <v>22.15</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="A34" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="5">
         <v>77.5</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>70.2</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>73.7</v>
       </c>
-      <c r="E34" s="4">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F34" s="4">
+      <c r="E34" s="5">
+        <v>78.4</v>
+      </c>
+      <c r="F34" s="5">
         <v>4.95</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="A35" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B35" s="5">
         <v>82.4</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>69.5</v>
       </c>
-      <c r="D35" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="E35" s="4">
+      <c r="D35" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="E35" s="5">
         <v>80.5</v>
       </c>
-      <c r="F35" s="4">
-        <v>326.77999999999997</v>
+      <c r="F35" s="5">
+        <v>326.78</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="A36" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="5">
         <v>36.6</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>5.6</v>
       </c>
-      <c r="D36" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E36" s="4">
+      <c r="D36" s="5">
+        <v>9.7</v>
+      </c>
+      <c r="E36" s="5">
         <v>55.3</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="5">
         <v>2.73</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="A37" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="5">
         <v>1</v>
       </c>
-      <c r="C37" s="4">
-        <v>1.4E-2</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="C37" s="5">
+        <v>0.014</v>
+      </c>
+      <c r="D37" s="5">
+        <v>0.028</v>
+      </c>
+      <c r="E37" s="5">
         <v>57.6</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="5">
         <v>4.07</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4">
-        <v>70.5</v>
-      </c>
-      <c r="C38" s="4">
-        <v>75.7</v>
-      </c>
-      <c r="D38" s="4">
-        <v>73</v>
-      </c>
-      <c r="E38" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2E-3</v>
+    <row r="38" ht="16.5" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
+        <v>87.6</v>
+      </c>
+      <c r="C38" s="5">
+        <v>60.6</v>
+      </c>
+      <c r="D38" s="5">
+        <v>71.6</v>
+      </c>
+      <c r="E38" s="5">
+        <v>79.4</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.002</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="7"/>
+    <row r="40" spans="2:2">
+      <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="7"/>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14938,710 +14928,712 @@
     <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
-      <c r="B1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
+    <row r="1" ht="16.5" spans="2:6">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6">
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="2" ht="16.5" spans="2:6">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
         <v>75.3</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="5">
         <v>70.3</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>72.7</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>77.3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="5">
         <v>23.07</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>7</v>
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="5">
         <v>82.7</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>61.3</v>
       </c>
-      <c r="D6" s="4">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="E6" s="4">
+      <c r="D6" s="5">
+        <v>70.4</v>
+      </c>
+      <c r="E6" s="5">
         <v>77.8</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="5">
         <v>0.49</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="5">
         <v>30.4</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>4.2</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="5">
         <v>7.4</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="5">
         <v>54.7</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>0.37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="5">
         <v>43</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>100</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="5">
         <v>60.1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="5">
         <v>43</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="5">
         <v>11.39</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4">
-        <v>81.400000000000006</v>
-      </c>
-      <c r="C9" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D9" s="4">
-        <v>73.099999999999994</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="5">
+        <v>81.4</v>
+      </c>
+      <c r="C9" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>73.1</v>
+      </c>
+      <c r="E9" s="5">
         <v>79</v>
       </c>
-      <c r="F9" s="4">
-        <v>1.1000000000000001</v>
+      <c r="F9" s="5">
+        <v>1.1</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="5">
         <v>76.7</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>71.7</v>
       </c>
-      <c r="D10" s="4">
-        <v>74.099999999999994</v>
-      </c>
-      <c r="E10" s="4">
+      <c r="D10" s="5">
+        <v>74.1</v>
+      </c>
+      <c r="E10" s="5">
         <v>78.5</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="5">
         <v>2.52</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="5">
         <v>85</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>65.5</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="5">
         <v>74</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="5">
         <v>80.2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>5.69</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" ht="16.5" spans="1:6">
+      <c r="A12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5">
         <v>82.6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>66.5</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="5">
         <v>73.7</v>
       </c>
-      <c r="E12" s="4">
-        <v>79.599999999999994</v>
-      </c>
-      <c r="F12" s="4">
-        <v>5.0000000000000001E-3</v>
+      <c r="E12" s="5">
+        <v>79.6</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.005</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
-      <c r="B14" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+    <row r="14" ht="16.5" spans="2:6">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
+    <row r="15" ht="16.5" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C16" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D16" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E16" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F16" s="4">
-        <v>4.2999999999999997E-2</v>
+      <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D16" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.043</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C17" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D17" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E17" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F17" s="4">
-        <v>4.2999999999999997E-2</v>
+      <c r="A17" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D17" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.043</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="A18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5">
         <v>70.7</v>
       </c>
-      <c r="C18" s="4">
-        <v>66.400000000000006</v>
-      </c>
-      <c r="D18" s="4">
+      <c r="C18" s="5">
+        <v>66.4</v>
+      </c>
+      <c r="D18" s="5">
         <v>66.8</v>
       </c>
-      <c r="E18" s="4">
-        <v>72.900000000000006</v>
-      </c>
-      <c r="F18" s="4">
+      <c r="E18" s="5">
+        <v>72.9</v>
+      </c>
+      <c r="F18" s="5">
         <v>0.08</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="A19" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="5">
         <v>70.2</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>63.8</v>
       </c>
-      <c r="D19" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E19" s="5">
         <v>72.8</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="5">
         <v>0.1067</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="A20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="5">
         <v>68</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>66.2</v>
       </c>
-      <c r="D20" s="4">
-        <v>67.099999999999994</v>
-      </c>
-      <c r="E20" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F20" s="4">
-        <v>4.2000000000000003E-2</v>
+      <c r="D20" s="5">
+        <v>67.1</v>
+      </c>
+      <c r="E20" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.042</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="4">
-        <v>67.900000000000006</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="A21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="5">
+        <v>67.9</v>
+      </c>
+      <c r="C21" s="5">
         <v>66.2</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="5">
         <v>67</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="5">
         <v>72</v>
       </c>
-      <c r="F21" s="4">
-        <v>1.3009999999999999</v>
+      <c r="F21" s="5">
+        <v>1.301</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
         <v>69.8</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>61.8</v>
       </c>
-      <c r="D22" s="4">
-        <v>65.599999999999994</v>
-      </c>
-      <c r="E22" s="4">
-        <v>72.099999999999994</v>
-      </c>
-      <c r="F22" s="4">
-        <v>0.17599999999999999</v>
+      <c r="D22" s="5">
+        <v>65.6</v>
+      </c>
+      <c r="E22" s="5">
+        <v>72.1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0.176</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
         <v>69.3</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>64.7</v>
       </c>
-      <c r="D23" s="4">
-        <v>66.900000000000006</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="D23" s="5">
+        <v>66.9</v>
+      </c>
+      <c r="E23" s="5">
         <v>72.5</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="5">
         <v>0.93</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B24" s="4">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="A24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="5">
+        <v>69.9</v>
+      </c>
+      <c r="C24" s="5">
         <v>63.8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="5">
         <v>66.7</v>
       </c>
-      <c r="E24" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4.8000000000000001E-2</v>
+      <c r="E24" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.048</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B25" s="4">
+    <row r="25" ht="16.5" spans="1:6">
+      <c r="A25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5">
         <v>0</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>0</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="5">
         <v>0</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="5">
         <v>0</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="5">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
+    <row r="26" spans="5:6">
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
-      <c r="B27" s="9" t="s">
+    <row r="27" ht="16.5" spans="2:6">
+      <c r="B27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="4"/>
-      <c r="B28" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28" s="2" t="s">
+    <row r="28" ht="16.5" spans="1:6">
+      <c r="A28" s="5"/>
+      <c r="B28" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="D28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="E28" s="3" t="s">
         <v>4</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="4">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="A29" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="5">
+        <v>75.1</v>
+      </c>
+      <c r="C29" s="5">
         <v>70.3</v>
       </c>
-      <c r="D29" s="4">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="D29" s="5">
+        <v>72.6</v>
+      </c>
+      <c r="E29" s="5">
         <v>77.2</v>
       </c>
-      <c r="F29" s="4">
-        <v>0.77200000000000002</v>
+      <c r="F29" s="5">
+        <v>0.772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B30" s="4">
+      <c r="A30" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="5">
         <v>74.3</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>72.3</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="5">
         <v>73.3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="5">
         <v>77.5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="5">
         <v>3541.79</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="4">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="5">
         <v>0</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="5">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="5">
         <v>57</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="5">
         <v>4528.62</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="4">
+      <c r="A32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="5">
         <v>82.5</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>59.1</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="5">
         <v>68.8</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="5">
         <v>77</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="5">
         <v>174.39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B33" s="4">
+      <c r="A33" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="5">
         <v>36.6</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>5.6</v>
       </c>
-      <c r="D33" s="4">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="E33" s="4">
+      <c r="D33" s="5">
+        <v>9.7</v>
+      </c>
+      <c r="E33" s="5">
         <v>55.3</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="5">
         <v>2.73</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B34" s="4">
+      <c r="A34" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="5">
         <v>0</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>0</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="5">
         <v>57</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="5">
         <v>4.07</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="4">
+      <c r="A35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5">
         <v>85.9</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>51.1</v>
       </c>
-      <c r="D35" s="4">
-        <v>64.099999999999994</v>
-      </c>
-      <c r="E35" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="F35" s="4">
+      <c r="D35" s="5">
+        <v>64.1</v>
+      </c>
+      <c r="E35" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="F35" s="5">
         <v>22.15</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="4">
+      <c r="A36" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="5">
         <v>77.5</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>70.2</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="5">
         <v>73.7</v>
       </c>
-      <c r="E36" s="4">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="F36" s="4">
+      <c r="E36" s="5">
+        <v>78.4</v>
+      </c>
+      <c r="F36" s="5">
         <v>4.95</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B37" s="4">
+      <c r="A37" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" s="5">
         <v>82.4</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>69.5</v>
       </c>
-      <c r="D37" s="4">
-        <v>75.400000000000006</v>
-      </c>
-      <c r="E37" s="4">
+      <c r="D37" s="5">
+        <v>75.4</v>
+      </c>
+      <c r="E37" s="5">
         <v>80.5</v>
       </c>
-      <c r="F37" s="4">
-        <v>326.77999999999997</v>
+      <c r="F37" s="5">
+        <v>326.78</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="4">
+    <row r="38" ht="16.5" spans="1:6">
+      <c r="A38" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="5">
         <v>70.5</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>75.7</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="5">
         <v>73</v>
       </c>
-      <c r="E38" s="4">
-        <v>75.900000000000006</v>
-      </c>
-      <c r="F38" s="4">
-        <v>2E-3</v>
+      <c r="E38" s="5">
+        <v>75.9</v>
+      </c>
+      <c r="F38" s="5">
+        <v>0.002</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
-      <c r="B40" s="7"/>
+    <row r="40" spans="2:2">
+      <c r="B40" s="9"/>
     </row>
-    <row r="41" spans="1:6">
-      <c r="B41" s="7"/>
+    <row r="41" spans="2:2">
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15650,7 +15642,8 @@
     <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Results_reduced_update!!!!!!!new.xlsx
+++ b/Results_reduced_update!!!!!!!new.xlsx
@@ -1,15 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11108"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vgv/Documents/bredesen_phd/cosc522/CS522-Final-Project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FCD43A-E978-214C-8261-D91710A5D305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="18930" windowHeight="8520"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nn (2)" sheetId="3" r:id="rId1"/>
     <sheet name="nn" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'nn (2)'!$A$3:$A$12</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'nn (2)'!$B$1</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'nn (2)'!$B$14</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'nn (2)'!$B$27</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'nn (2)'!$F$16:$F$25</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'nn (2)'!$F$29:$F$38</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'nn (2)'!$F$3:$F$12</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -83,14 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +112,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -111,362 +120,32 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="1"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -557,257 +236,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -826,83 +260,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
-    <cellStyle name="Total" xfId="25" builtinId="25"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="Currency" xfId="27" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
-    <cellStyle name="Note" xfId="29" builtinId="10"/>
-    <cellStyle name="Input" xfId="30" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
-    <cellStyle name="Good" xfId="33" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
-    <cellStyle name="Title" xfId="39" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
-    <cellStyle name="Comma" xfId="44" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
-    <cellStyle name="Percent" xfId="47" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -944,7 +337,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -953,6 +345,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1012,6 +424,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1024,7 +437,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1088,10 +500,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.7</c:v>
@@ -1106,20 +518,25 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.9</c:v>
+                  <c:v>69.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>69.9</c:v>
+                  <c:v>69.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BCE8-1544-9C24-AC394E3CF67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -1172,6 +589,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1184,7 +602,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1260,7 +677,7 @@
                   <c:v>82.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81.4</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>76.7</c:v>
@@ -1280,6 +697,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BCE8-1544-9C24-AC394E3CF67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1332,6 +754,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1344,7 +767,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1370,7 +792,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.1</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74.3</c:v>
@@ -1402,6 +824,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BCE8-1544-9C24-AC394E3CF67E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1457,6 +884,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -1510,11 +938,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1523,6 +949,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -1552,6 +998,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -1568,7 +1015,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1594,6 +1040,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1623,6 +1070,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1634,9 +1082,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1684,10 +1132,22 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-920D-3B41-B60A-356DA3C9ED85}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-920D-3B41-B60A-356DA3C9ED85}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -1715,6 +1175,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1727,7 +1188,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1818,11 +1278,16 @@
                   <c:v>80.2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.6</c:v>
+                  <c:v>79.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-920D-3B41-B60A-356DA3C9ED85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1875,6 +1340,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -1887,7 +1353,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1951,31 +1416,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.9</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72.6</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -1983,6 +1448,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-920D-3B41-B60A-356DA3C9ED85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2035,6 +1505,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2047,7 +1518,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2091,20 +1561,25 @@
                   <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.4</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>78.4</c:v>
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>80.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.9</c:v>
+                  <c:v>75.900000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-920D-3B41-B60A-356DA3C9ED85}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2160,6 +1635,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2213,11 +1689,9 @@
                   <a:rPr lang="en-US" sz="1800"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1800"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2226,6 +1700,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2255,6 +1749,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -2271,7 +1766,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2297,6 +1791,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2326,6 +1821,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2337,9 +1833,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2381,7 +1877,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2390,6 +1885,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -2449,6 +1964,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2461,7 +1977,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2525,13 +2040,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.8</c:v>
@@ -2557,6 +2072,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5512-0A4B-BA74-D19CFDC26EAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -2609,6 +2129,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2621,7 +2142,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2697,7 +2217,7 @@
                   <c:v>61.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>71.7</c:v>
@@ -2717,6 +2237,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5512-0A4B-BA74-D19CFDC26EAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -2769,6 +2294,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -2781,7 +2307,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2831,7 +2356,7 @@
                   <c:v>5.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.014</c:v>
+                  <c:v>1.4E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>60.6</c:v>
@@ -2839,6 +2364,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5512-0A4B-BA74-D19CFDC26EAF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2894,6 +2424,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -2947,11 +2478,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2960,6 +2489,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -2989,6 +2538,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -3005,7 +2555,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3031,6 +2580,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3060,6 +2610,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3071,9 +2622,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3115,7 +2666,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3124,6 +2674,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3183,6 +2753,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3195,7 +2766,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3259,28 +2829,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.9</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>65.6</c:v>
+                  <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>66.9</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>66.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>67</c:v>
@@ -3291,6 +2861,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A1B9-AD4F-8EA1-00E69DFD23C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -3343,6 +2918,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3355,7 +2931,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3428,13 +3003,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.4</c:v>
+                  <c:v>70.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>73.1</c:v>
+                  <c:v>73.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74.1</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>74</c:v>
@@ -3451,6 +3026,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A1B9-AD4F-8EA1-00E69DFD23C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -3503,6 +3083,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3515,7 +3096,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3541,7 +3121,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.6</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73.3</c:v>
@@ -3553,26 +3133,31 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64.1</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.4</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.7</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.028</c:v>
+                  <c:v>2.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>71.6</c:v>
+                  <c:v>71.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A1B9-AD4F-8EA1-00E69DFD23C6}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -3628,6 +3213,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -3681,11 +3267,9 @@
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3694,6 +3278,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -3723,6 +3327,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -3739,7 +3344,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3765,6 +3369,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3794,6 +3399,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3805,9 +3411,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3849,7 +3455,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3858,6 +3463,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -3866,14 +3491,14 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0490811090013707"/>
-          <c:y val="0.072863149337179"/>
-          <c:w val="0.942989022640881"/>
-          <c:h val="0.788697224039905"/>
+          <c:x val="4.90811090013707E-2"/>
+          <c:y val="7.2863149337178995E-2"/>
+          <c:w val="0.94298902264088102"/>
+          <c:h val="0.78869722403990505"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -3927,6 +3552,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -3939,7 +3565,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4003,10 +3628,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
@@ -4015,26 +3640,31 @@
                   <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.176</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.301</c:v>
+                  <c:v>1.3009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.001</c:v>
+                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4171-0E47-B6F8-CBC5ADCE1C69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -4087,6 +3717,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4099,7 +3730,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4175,7 +3805,7 @@
                   <c:v>0.49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2.52</c:v>
@@ -4190,11 +3820,16 @@
                   <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4171-0E47-B6F8-CBC5ADCE1C69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -4247,6 +3882,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4259,7 +3895,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4285,7 +3920,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.772</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3541.79</c:v>
@@ -4303,7 +3938,7 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>326.78</c:v>
+                  <c:v>326.77999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.73</c:v>
@@ -4312,11 +3947,16 @@
                   <c:v>4.07</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4171-0E47-B6F8-CBC5ADCE1C69}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4327,7 +3967,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="87313839"/>
         <c:axId val="167260495"/>
       </c:barChart>
@@ -4337,7 +3976,7 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="b"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4372,10 +4011,11 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="1.0000000000000004E-5"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -4384,10 +4024,11 @@
       <c:valAx>
         <c:axId val="167260495"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="l"/>
+        <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4405,7 +4046,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
@@ -4433,11 +4074,9 @@
                   <a:rPr lang="en-US" sz="2800"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2800"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4446,6 +4085,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -4475,6 +4134,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -4491,7 +4151,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4517,6 +4176,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4546,6 +4206,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4557,9 +4218,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4601,7 +4262,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4610,6 +4270,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4618,10 +4298,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0737079054740463"/>
-          <c:y val="0.0626087159081961"/>
-          <c:w val="0.870507270028939"/>
-          <c:h val="0.822162213308497"/>
+          <c:x val="7.3707905474046306E-2"/>
+          <c:y val="6.2608715908196097E-2"/>
+          <c:w val="0.87050727002893902"/>
+          <c:h val="0.82216221330849704"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -4656,10 +4336,22 @@
             <c:dLbl>
               <c:idx val="1"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-68B2-3B48-B429-D1B7699DC06A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
               <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-68B2-3B48-B429-D1B7699DC06A}"/>
+                </c:ext>
+              </c:extLst>
             </c:dLbl>
             <c:spPr>
               <a:noFill/>
@@ -4685,6 +4377,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4697,7 +4390,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4788,11 +4480,16 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.6</c:v>
+                  <c:v>79.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-68B2-3B48-B429-D1B7699DC06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -4843,6 +4540,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -4855,7 +4553,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4919,38 +4616,43 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.9</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>72.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72.6</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72.1</c:v>
+                  <c:v>72.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72.6</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-68B2-3B48-B429-D1B7699DC06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5001,6 +4703,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5013,7 +4716,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5051,10 +4753,10 @@
                   <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75.4</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>78.4</c:v>
+                  <c:v>78.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>80.5</c:v>
@@ -5066,11 +4768,16 @@
                   <c:v>57.6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79.4</c:v>
+                  <c:v>79.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-68B2-3B48-B429-D1B7699DC06A}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5126,6 +4833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -5179,11 +4887,9 @@
                   <a:rPr lang="en-US" sz="2000"/>
                   <a:t>Accuracy (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2000"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5192,6 +4898,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5221,6 +4947,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -5241,10 +4968,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.447925733517779"/>
-          <c:y val="0.96738048619795"/>
+          <c:x val="0.44792573351777898"/>
+          <c:y val="0.96738048619795003"/>
           <c:w val="0.148782029575101"/>
-          <c:h val="0.0326195138020502"/>
+          <c:h val="3.26195138020502E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -5272,6 +4999,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5301,6 +5029,7 @@
       <a:pPr>
         <a:defRPr lang="en-US" sz="1400"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5312,9 +5041,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5356,7 +5085,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5365,6 +5093,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -5424,6 +5172,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5436,7 +5185,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5500,10 +5248,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>70.7</c:v>
@@ -5515,7 +5263,7 @@
                   <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67.9</c:v>
+                  <c:v>67.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>69.8</c:v>
@@ -5524,7 +5272,7 @@
                   <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>69.9</c:v>
+                  <c:v>69.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -5532,6 +5280,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-32CE-F148-A3B0-91925DF25AEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -5584,6 +5337,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5596,7 +5350,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5678,7 +5431,7 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81.4</c:v>
+                  <c:v>81.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>76.7</c:v>
@@ -5692,6 +5445,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-32CE-F148-A3B0-91925DF25AEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -5744,6 +5502,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -5756,7 +5515,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -5782,7 +5540,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>75.1</c:v>
+                  <c:v>75.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>74.3</c:v>
@@ -5814,6 +5572,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-32CE-F148-A3B0-91925DF25AEA}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5869,6 +5632,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -5922,11 +5686,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Precision (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5935,6 +5697,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -5964,6 +5746,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -5980,7 +5763,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6006,6 +5788,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6035,6 +5818,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6046,9 +5830,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6090,7 +5874,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6099,6 +5882,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6158,6 +5961,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6170,7 +5974,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6234,13 +6037,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>63.8</c:v>
@@ -6266,6 +6069,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-687A-8642-B065-E313C379C155}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -6318,6 +6126,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6330,7 +6139,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6412,7 +6220,7 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66.4</c:v>
+                  <c:v>66.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>71.7</c:v>
@@ -6426,6 +6234,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-687A-8642-B065-E313C379C155}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -6478,6 +6291,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6490,7 +6304,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6548,6 +6361,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-687A-8642-B065-E313C379C155}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6603,6 +6421,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -6656,11 +6475,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>Recall (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6669,6 +6486,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -6698,6 +6535,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -6714,7 +6552,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6740,6 +6577,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6769,6 +6607,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6780,9 +6619,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6824,7 +6663,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6833,6 +6671,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -6892,6 +6750,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -6904,7 +6763,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6968,28 +6826,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>66.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.9</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67.1</c:v>
+                  <c:v>67.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>65.6</c:v>
+                  <c:v>65.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>66.9</c:v>
+                  <c:v>66.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>66.7</c:v>
@@ -7000,6 +6858,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DB24-A647-8225-B36C32718A7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7052,6 +6915,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7064,7 +6928,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7137,7 +7000,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>70.4</c:v>
+                  <c:v>70.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7.4</c:v>
@@ -7146,10 +7009,10 @@
                   <c:v>60.1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>73.1</c:v>
+                  <c:v>73.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74.1</c:v>
+                  <c:v>74.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>74</c:v>
@@ -7160,6 +7023,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DB24-A647-8225-B36C32718A7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7212,6 +7080,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7224,7 +7093,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7250,7 +7118,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>72.6</c:v>
+                  <c:v>72.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>73.3</c:v>
@@ -7262,19 +7130,19 @@
                   <c:v>68.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7</c:v>
+                  <c:v>9.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64.1</c:v>
+                  <c:v>64.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>73.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75.4</c:v>
+                  <c:v>75.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>73</c:v>
@@ -7282,6 +7150,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DB24-A647-8225-B36C32718A7D}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -7337,6 +7210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -7390,11 +7264,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t>F1-Score (%)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7403,6 +7275,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -7432,6 +7324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -7448,7 +7341,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7474,6 +7366,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7503,6 +7396,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7514,9 +7408,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7558,7 +7452,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7567,6 +7460,26 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-US"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -7626,6 +7539,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7638,7 +7552,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7702,10 +7615,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.043</c:v>
+                  <c:v>4.2999999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.08</c:v>
@@ -7714,19 +7627,19 @@
                   <c:v>0.1067</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.042</c:v>
+                  <c:v>4.2000000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.301</c:v>
+                  <c:v>1.3009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.176</c:v>
+                  <c:v>0.17599999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.93</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.048</c:v>
+                  <c:v>4.8000000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -7734,6 +7647,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4553-DC4A-B4F1-D30C1EDBC25B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="0"/>
@@ -7786,6 +7704,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7798,7 +7717,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7880,7 +7798,7 @@
                   <c:v>11.39</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2.52</c:v>
@@ -7889,11 +7807,16 @@
                   <c:v>5.69</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.005</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4553-DC4A-B4F1-D30C1EDBC25B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -7946,6 +7869,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
+                <a:endParaRPr lang="es-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="outEnd"/>
@@ -7958,7 +7882,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7984,7 +7907,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.772</c:v>
+                  <c:v>0.77200000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3541.79</c:v>
@@ -8008,14 +7931,19 @@
                   <c:v>4.95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>326.78</c:v>
+                  <c:v>326.77999999999997</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.002</c:v>
+                  <c:v>2E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4553-DC4A-B4F1-D30C1EDBC25B}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -8071,6 +7999,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="167260495"/>
@@ -8132,11 +8061,9 @@
                   <a:rPr lang="en-US" sz="1200"/>
                   <a:t> (sec.)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1200"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8145,6 +8072,26 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-US"/>
+            </a:p>
+          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -8174,6 +8121,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="es-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="87313839"/>
@@ -8190,7 +8138,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8216,6 +8163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="es-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8245,6 +8193,7 @@
       <a:pPr>
         <a:defRPr lang="en-US"/>
       </a:pPr>
+      <a:endParaRPr lang="es-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13656,7 +13605,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -13670,14 +13619,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11236960" y="209550"/>
-        <a:ext cx="12351385" cy="4831715"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13700,14 +13655,20 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>24493</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11631295" y="5246370"/>
-        <a:ext cx="12827000" cy="4876800"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13730,14 +13691,20 @@
       <xdr:row>143</xdr:row>
       <xdr:rowOff>40821</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="20052030" y="18052415"/>
-        <a:ext cx="30051375" cy="10689590"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13749,25 +13716,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>42860</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>544285</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>120952</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>1114424</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>90714</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="50091975" y="252095"/>
-        <a:ext cx="60180855" cy="17895570"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13790,14 +13763,20 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>136072</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="24949785" y="304800"/>
-        <a:ext cx="24310340" cy="10130155"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13811,7 +13790,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
@@ -13825,14 +13804,20 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11236960" y="209550"/>
-        <a:ext cx="12351385" cy="4819650"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13855,14 +13840,20 @@
       <xdr:row>50</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11236960" y="5257800"/>
-        <a:ext cx="12351385" cy="4867275"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13885,14 +13876,20 @@
       <xdr:row>77</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11236960" y="10487025"/>
-        <a:ext cx="12351385" cy="5038725"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13915,14 +13912,20 @@
       <xdr:row>131</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="11236960" y="21288375"/>
-        <a:ext cx="12351385" cy="5038725"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -13945,14 +13948,20 @@
       <xdr:row>59</xdr:row>
       <xdr:rowOff>80683</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="8288655"/>
-        <a:ext cx="11360150" cy="3679190"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -14217,709 +14226,709 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="42" zoomScaleNormal="42" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="2:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" ht="16.5" spans="2:6">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>75.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>70.3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>72.7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>77.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>23.07</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>82.7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>61.3</v>
       </c>
-      <c r="D6" s="5">
-        <v>70.4</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E6" s="4">
         <v>77.8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5">
-        <v>81.4</v>
-      </c>
-      <c r="C7" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D7" s="5">
-        <v>73.1</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="B7" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C7" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D7" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E7" s="4">
         <v>79</v>
       </c>
-      <c r="F7" s="5">
-        <v>1.1</v>
+      <c r="F7" s="4">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>76.7</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>71.7</v>
       </c>
-      <c r="D8" s="5">
-        <v>74.1</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E8" s="4">
         <v>78.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2.52</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>85</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="4">
         <v>65.5</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>74</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="4">
         <v>80.2</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>5.69</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>30.4</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>4.2</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>7.4</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>54.7</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>43</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>100</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>60.1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>43</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>11.39</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>82.6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>66.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>73.7</v>
       </c>
-      <c r="E12" s="5">
-        <v>79.6</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.005</v>
+      <c r="E12" s="4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="11" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C16" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.043</v>
+      <c r="B16" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C16" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D16" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E16" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C17" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.043</v>
+      <c r="B17" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C17" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D17" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E17" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>70.7</v>
       </c>
-      <c r="C18" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D18" s="4">
         <v>66.8</v>
       </c>
-      <c r="E18" s="5">
-        <v>72.9</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" ht="17.45" customHeight="1" spans="1:6">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>70.2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>63.8</v>
       </c>
-      <c r="D19" s="5">
-        <v>66.9</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E19" s="4">
         <v>72.8</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.1067</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>69.8</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>61.8</v>
       </c>
-      <c r="D20" s="5">
-        <v>65.6</v>
-      </c>
-      <c r="E20" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.176</v>
+      <c r="D20" s="4">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E20" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F20" s="4">
+        <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>69.3</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>64.7</v>
       </c>
-      <c r="D21" s="5">
-        <v>66.9</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E21" s="4">
         <v>72.5</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="5">
-        <v>69.9</v>
-      </c>
-      <c r="C22" s="5">
+      <c r="B22" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C22" s="4">
         <v>63.8</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <v>66.7</v>
       </c>
-      <c r="E22" s="5">
-        <v>72.6</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.048</v>
+      <c r="E22" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>68</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>66.2</v>
       </c>
-      <c r="D23" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E23" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F23" s="5">
-        <v>0.042</v>
+      <c r="D23" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E23" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C24" s="4">
         <v>66.2</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>67</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="4">
         <v>72</v>
       </c>
-      <c r="F24" s="5">
-        <v>1.301</v>
+      <c r="F24" s="4">
+        <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="5">
-        <v>69.9</v>
-      </c>
-      <c r="C25" s="5">
+      <c r="B25" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C25" s="4">
         <v>63.8</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>66.7</v>
       </c>
-      <c r="E25" s="5">
-        <v>72.6</v>
-      </c>
-      <c r="F25" s="5">
-        <v>0.001</v>
+      <c r="E25" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="5">
-        <v>75.1</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C29" s="4">
         <v>70.3</v>
       </c>
-      <c r="D29" s="5">
-        <v>72.6</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E29" s="4">
         <v>77.2</v>
       </c>
-      <c r="F29" s="5">
-        <v>0.772</v>
+      <c r="F29" s="4">
+        <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>74.3</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>72.3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>73.3</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>77.5</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>3541.79</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>57</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>4528.62</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>82.5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>59.1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>68.8</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>77</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>174.39</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>85.9</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>51.1</v>
       </c>
-      <c r="D33" s="5">
-        <v>64.1</v>
-      </c>
-      <c r="E33" s="5">
-        <v>75.4</v>
-      </c>
-      <c r="F33" s="5">
+      <c r="D33" s="4">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E33" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F33" s="4">
         <v>22.15</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>77.5</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>70.2</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>73.7</v>
       </c>
-      <c r="E34" s="5">
-        <v>78.4</v>
-      </c>
-      <c r="F34" s="5">
+      <c r="E34" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F34" s="4">
         <v>4.95</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>82.4</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>69.5</v>
       </c>
-      <c r="D35" s="5">
-        <v>75.4</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E35" s="4">
         <v>80.5</v>
       </c>
-      <c r="F35" s="5">
-        <v>326.78</v>
+      <c r="F35" s="4">
+        <v>326.77999999999997</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>36.6</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>5.6</v>
       </c>
-      <c r="D36" s="5">
-        <v>9.7</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E36" s="4">
         <v>55.3</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F36" s="4">
         <v>2.73</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>1</v>
       </c>
-      <c r="C37" s="5">
-        <v>0.014</v>
-      </c>
-      <c r="D37" s="5">
-        <v>0.028</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="C37" s="4">
+        <v>1.4E-2</v>
+      </c>
+      <c r="D37" s="4">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E37" s="4">
         <v>57.6</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="4">
         <v>4.07</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>87.6</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>60.6</v>
       </c>
-      <c r="D38" s="5">
-        <v>71.6</v>
-      </c>
-      <c r="E38" s="5">
-        <v>79.4</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.002</v>
+      <c r="D38" s="4">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="E38" s="4">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -14928,712 +14937,710 @@
     <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.8533333333333" defaultRowHeight="15.75" outlineLevelCol="5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="16.5" spans="2:6">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
-    <row r="2" ht="16.5" spans="2:6">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>75.3</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>70.3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>72.7</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>77.3</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>23.07</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="4">
         <v>82.7</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>61.3</v>
       </c>
-      <c r="D6" s="5">
-        <v>70.4</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="4">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="E6" s="4">
         <v>77.8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="4">
         <v>0.49</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>30.4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>4.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>7.4</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>54.7</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>0.37</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="4">
         <v>43</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>60.1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="4">
         <v>43</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>11.39</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
-        <v>81.4</v>
-      </c>
-      <c r="C9" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D9" s="5">
-        <v>73.1</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B9" s="4">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="C9" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D9" s="4">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="E9" s="4">
         <v>79</v>
       </c>
-      <c r="F9" s="5">
-        <v>1.1</v>
+      <c r="F9" s="4">
+        <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>76.7</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="4">
         <v>71.7</v>
       </c>
-      <c r="D10" s="5">
-        <v>74.1</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="4">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="E10" s="4">
         <v>78.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>2.52</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>85</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <v>65.5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>74</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>80.2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>5.69</v>
       </c>
     </row>
-    <row r="12" ht="16.5" spans="1:6">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>82.6</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>66.5</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>73.7</v>
       </c>
-      <c r="E12" s="5">
-        <v>79.6</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.005</v>
+      <c r="E12" s="4">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="F12" s="4">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="14" ht="16.5" spans="2:6">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
-    <row r="15" ht="16.5" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="10" t="s">
+      <c r="F15" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C16" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D16" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E16" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0.043</v>
+      <c r="B16" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C16" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D16" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E16" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="6" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C17" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D17" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E17" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.043</v>
+      <c r="B17" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C17" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D17" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E17" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <v>70.7</v>
       </c>
-      <c r="C18" s="5">
-        <v>66.4</v>
-      </c>
-      <c r="D18" s="5">
+      <c r="C18" s="4">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="D18" s="4">
         <v>66.8</v>
       </c>
-      <c r="E18" s="5">
-        <v>72.9</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="E18" s="4">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F18" s="4">
         <v>0.08</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>70.2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>63.8</v>
       </c>
-      <c r="D19" s="5">
-        <v>66.9</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E19" s="4">
         <v>72.8</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="4">
         <v>0.1067</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>68</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>66.2</v>
       </c>
-      <c r="D20" s="5">
-        <v>67.1</v>
-      </c>
-      <c r="E20" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.042</v>
+      <c r="D20" s="4">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="E20" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F20" s="4">
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="6" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="5">
-        <v>67.9</v>
-      </c>
-      <c r="C21" s="5">
+      <c r="B21" s="4">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="C21" s="4">
         <v>66.2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>67</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="4">
         <v>72</v>
       </c>
-      <c r="F21" s="5">
-        <v>1.301</v>
+      <c r="F21" s="4">
+        <v>1.3009999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>69.8</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>61.8</v>
       </c>
-      <c r="D22" s="5">
-        <v>65.6</v>
-      </c>
-      <c r="E22" s="5">
-        <v>72.1</v>
-      </c>
-      <c r="F22" s="5">
-        <v>0.176</v>
+      <c r="D22" s="4">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E22" s="4">
+        <v>72.099999999999994</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0.17599999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="6" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23" s="4">
         <v>69.3</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>64.7</v>
       </c>
-      <c r="D23" s="5">
-        <v>66.9</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="4">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E23" s="4">
         <v>72.5</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="4">
         <v>0.93</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="6" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="5">
-        <v>69.9</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="B24" s="4">
+        <v>69.900000000000006</v>
+      </c>
+      <c r="C24" s="4">
         <v>63.8</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="4">
         <v>66.7</v>
       </c>
-      <c r="E24" s="5">
-        <v>72.6</v>
-      </c>
-      <c r="F24" s="5">
-        <v>0.048</v>
+      <c r="E24" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="F24" s="4">
+        <v>4.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="1:6">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="5:6">
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="2:6">
-      <c r="B27" s="1" t="s">
+    <row r="27" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="B27" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
     </row>
-    <row r="28" ht="16.5" spans="1:6">
-      <c r="A28" s="5"/>
-      <c r="B28" s="2" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="4"/>
+      <c r="B28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="5">
-        <v>75.1</v>
-      </c>
-      <c r="C29" s="5">
+      <c r="B29" s="4">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="C29" s="4">
         <v>70.3</v>
       </c>
-      <c r="D29" s="5">
-        <v>72.6</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="4">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="E29" s="4">
         <v>77.2</v>
       </c>
-      <c r="F29" s="5">
-        <v>0.772</v>
+      <c r="F29" s="4">
+        <v>0.77200000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30" s="4">
         <v>74.3</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>72.3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>73.3</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>77.5</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>3541.79</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31" s="4">
         <v>0</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>57</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>4528.62</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32" s="4">
         <v>82.5</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="4">
         <v>59.1</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="4">
         <v>68.8</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E32" s="4">
         <v>77</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F32" s="4">
         <v>174.39</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="6" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="4">
         <v>36.6</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <v>5.6</v>
       </c>
-      <c r="D33" s="5">
-        <v>9.7</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E33" s="4">
         <v>55.3</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="4">
         <v>2.73</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="6" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34" s="4">
         <v>0</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>0</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>57</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>4.07</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35" s="4">
         <v>85.9</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>51.1</v>
       </c>
-      <c r="D35" s="5">
-        <v>64.1</v>
-      </c>
-      <c r="E35" s="5">
-        <v>75.4</v>
-      </c>
-      <c r="F35" s="5">
+      <c r="D35" s="4">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="E35" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F35" s="4">
         <v>22.15</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="6" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36" s="4">
         <v>77.5</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="4">
         <v>70.2</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="4">
         <v>73.7</v>
       </c>
-      <c r="E36" s="5">
-        <v>78.4</v>
-      </c>
-      <c r="F36" s="5">
+      <c r="E36" s="4">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F36" s="4">
         <v>4.95</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="6" t="s">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37" s="4">
         <v>82.4</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="4">
         <v>69.5</v>
       </c>
-      <c r="D37" s="5">
-        <v>75.4</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="4">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="E37" s="4">
         <v>80.5</v>
       </c>
-      <c r="F37" s="5">
-        <v>326.78</v>
+      <c r="F37" s="4">
+        <v>326.77999999999997</v>
       </c>
     </row>
-    <row r="38" ht="16.5" spans="1:6">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38" s="4">
         <v>70.5</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="4">
         <v>75.7</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="4">
         <v>73</v>
       </c>
-      <c r="E38" s="5">
-        <v>75.9</v>
-      </c>
-      <c r="F38" s="5">
-        <v>0.002</v>
+      <c r="E38" s="4">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" s="9"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="7"/>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" s="9"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -15642,8 +15649,7 @@
     <mergeCell ref="B27:F27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>